--- a/docs/SupplementaryTables.xlsx
+++ b/docs/SupplementaryTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheaandrews/gitcode/CAIDE_APOE/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA1FA0-E4B9-4344-A264-1B6CF76147F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02829E0-3EAD-104C-8D41-49CC0EBF0657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54240" yWindow="4880" windowWidth="26840" windowHeight="15940" xr2:uid="{BE62AA02-C928-A340-9FC9-1ECD0470E4E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22460" windowHeight="26600" activeTab="7" xr2:uid="{BE62AA02-C928-A340-9FC9-1ECD0470E4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="TS3" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="TS6" sheetId="2" r:id="rId4"/>
     <sheet name="TS7" sheetId="3" r:id="rId5"/>
     <sheet name="TS8" sheetId="4" r:id="rId6"/>
-    <sheet name="TS9" sheetId="5" r:id="rId7"/>
+    <sheet name="TS9" sheetId="8" r:id="rId7"/>
+    <sheet name="TS10" sheetId="9" r:id="rId8"/>
+    <sheet name="TS11" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="168">
   <si>
     <t>statistic</t>
   </si>
@@ -255,6 +257,297 @@
   </si>
   <si>
     <t>Supplementary Table 3: Person's Chi-squared test for racial/ethnic group differences in gender, hypercholesterolemia, hypertension, ADRD/MCI diagnosis, and APOE e4</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>Unfavourable, e2+</t>
+  </si>
+  <si>
+    <t>Unfavourable, e3/e3</t>
+  </si>
+  <si>
+    <t>Unfavourable, e4+</t>
+  </si>
+  <si>
+    <t>Favourable, e2+</t>
+  </si>
+  <si>
+    <t>Favourable, e3/e3</t>
+  </si>
+  <si>
+    <t>Favourable, e4+</t>
+  </si>
+  <si>
+    <t>Intermediate, e2+</t>
+  </si>
+  <si>
+    <t>Intermediate, e4+</t>
+  </si>
+  <si>
+    <t>Latinx</t>
+  </si>
+  <si>
+    <t>Table S9: Comparison of the association of combined APOE genotype and CAIDE risk profiles with dementia and cognitive impairment between racial/ethnic groups.</t>
+  </si>
+  <si>
+    <t>9.3e-06</t>
+  </si>
+  <si>
+    <t>5.7e-53</t>
+  </si>
+  <si>
+    <t>3.2e-08</t>
+  </si>
+  <si>
+    <t>5.6e-13</t>
+  </si>
+  <si>
+    <t>1.6e-15</t>
+  </si>
+  <si>
+    <t>3.6e-06</t>
+  </si>
+  <si>
+    <t>6.1e-06</t>
+  </si>
+  <si>
+    <t>2.2e-08</t>
+  </si>
+  <si>
+    <t>2.0e-06</t>
+  </si>
+  <si>
+    <t>1.3e-14</t>
+  </si>
+  <si>
+    <t>7.7e-07</t>
+  </si>
+  <si>
+    <t>1.3e-46</t>
+  </si>
+  <si>
+    <t>1.3e-05</t>
+  </si>
+  <si>
+    <t>4.9e-07</t>
+  </si>
+  <si>
+    <t>7.4e-20</t>
+  </si>
+  <si>
+    <t>8.4e-07</t>
+  </si>
+  <si>
+    <t>3.1e-08</t>
+  </si>
+  <si>
+    <t>1.4e-08</t>
+  </si>
+  <si>
+    <t>4.6e-18</t>
+  </si>
+  <si>
+    <t>5.9e-06</t>
+  </si>
+  <si>
+    <t>6.3e-65</t>
+  </si>
+  <si>
+    <t>6.3e-09</t>
+  </si>
+  <si>
+    <t>4.4e-09</t>
+  </si>
+  <si>
+    <t>1.1e-26</t>
+  </si>
+  <si>
+    <t>6.0e-05</t>
+  </si>
+  <si>
+    <t>1.6e-06</t>
+  </si>
+  <si>
+    <t>8.2e-05</t>
+  </si>
+  <si>
+    <t>9.1e-08</t>
+  </si>
+  <si>
+    <t>1.5e-06</t>
+  </si>
+  <si>
+    <t>2.6e-15</t>
+  </si>
+  <si>
+    <t>2.5e-07</t>
+  </si>
+  <si>
+    <t>1.2e-59</t>
+  </si>
+  <si>
+    <t>2.7e-07</t>
+  </si>
+  <si>
+    <t>8.5e-05</t>
+  </si>
+  <si>
+    <t>1.9e-33</t>
+  </si>
+  <si>
+    <t>3.0e-05</t>
+  </si>
+  <si>
+    <t>1.2e-08</t>
+  </si>
+  <si>
+    <t>5.2e-05</t>
+  </si>
+  <si>
+    <t>2.5e-08</t>
+  </si>
+  <si>
+    <t>1.8e-08</t>
+  </si>
+  <si>
+    <t>6.9e-17</t>
+  </si>
+  <si>
+    <t>1.8e-05</t>
+  </si>
+  <si>
+    <t>Table S10: Comparison of the association of combined APOE genotype and mCAIDE risk profiles with dementia and cognitive impairment between racial/ethnic groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8e-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.0e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.6e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1e-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6e-07</t>
+  </si>
+  <si>
+    <t>5.4e-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.0e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.0e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.9e-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.5e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.0e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3e-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.7e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.7e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1e-05</t>
   </si>
 </sst>
 </file>
@@ -298,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,6 +603,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC55151-715B-A141-9314-8FB37FBD9919}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5684,9 +5980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FC72AA-D4C3-0145-AA80-E1D965AE0E09}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6996,11 +7290,5983 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDD770B-95C6-994A-B87F-ECF4F87E3374}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>0.23</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>1.53</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.12581999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>4.43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5">
+        <v>15.32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>-0.71</v>
+      </c>
+      <c r="E6">
+        <v>0.13</v>
+      </c>
+      <c r="F6">
+        <v>-5.53</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>-0.44</v>
+      </c>
+      <c r="E7">
+        <v>0.06</v>
+      </c>
+      <c r="F7">
+        <v>-7.21</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>0.53</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.97</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>-0.33</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>-4.63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.04</v>
+      </c>
+      <c r="F10">
+        <v>21.96</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>0.18</v>
+      </c>
+      <c r="E11">
+        <v>0.64</v>
+      </c>
+      <c r="F11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.77668999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>3.06</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.24</v>
+      </c>
+      <c r="F13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>-1.04</v>
+      </c>
+      <c r="E14">
+        <v>0.67</v>
+      </c>
+      <c r="F14">
+        <v>-1.56</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.11774999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>-0.49</v>
+      </c>
+      <c r="E15">
+        <v>0.27</v>
+      </c>
+      <c r="F15">
+        <v>-1.82</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6.8150000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.34</v>
+      </c>
+      <c r="F16">
+        <v>0.42</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.6734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>0.17</v>
+      </c>
+      <c r="E17">
+        <v>0.41</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.67484999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>0.63</v>
+      </c>
+      <c r="E18">
+        <v>0.18</v>
+      </c>
+      <c r="F18">
+        <v>3.45</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.6999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>0.32</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+      <c r="F19">
+        <v>1.08</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.28236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.18</v>
+      </c>
+      <c r="F20">
+        <v>0.41</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.67945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.16</v>
+      </c>
+      <c r="F21">
+        <v>5.6</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+      <c r="F22">
+        <v>-1.44</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.15026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>0.17</v>
+      </c>
+      <c r="E23">
+        <v>0.23</v>
+      </c>
+      <c r="F23">
+        <v>0.71</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.47898000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>0.93</v>
+      </c>
+      <c r="E24">
+        <v>0.19</v>
+      </c>
+      <c r="F24">
+        <v>4.76</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>-0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.2030000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>0.89</v>
+      </c>
+      <c r="E26">
+        <v>0.12</v>
+      </c>
+      <c r="F26">
+        <v>7.7</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>1.32</v>
+      </c>
+      <c r="E27">
+        <v>0.83</v>
+      </c>
+      <c r="F27">
+        <v>1.6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.11042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>0.59</v>
+      </c>
+      <c r="E28">
+        <v>0.34</v>
+      </c>
+      <c r="F28">
+        <v>1.76</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7.8219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4.5589999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>-1.5</v>
+      </c>
+      <c r="E30">
+        <v>0.78</v>
+      </c>
+      <c r="F30">
+        <v>-1.93</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>-0.91</v>
+      </c>
+      <c r="E31">
+        <v>0.32</v>
+      </c>
+      <c r="F31">
+        <v>-2.86</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>-0.08</v>
+      </c>
+      <c r="E32">
+        <v>0.4</v>
+      </c>
+      <c r="F32">
+        <v>-0.2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.83782999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>-0.7</v>
+      </c>
+      <c r="E33">
+        <v>0.35</v>
+      </c>
+      <c r="F33">
+        <v>-1.98</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4.7809999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>1.22</v>
+      </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>-0.03</v>
+      </c>
+      <c r="E35">
+        <v>0.19</v>
+      </c>
+      <c r="F35">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.89212000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>0.24</v>
+      </c>
+      <c r="E36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F36">
+        <v>3.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.6999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.08</v>
+      </c>
+      <c r="F37">
+        <v>14.34</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>-0.66</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>-0.36</v>
+      </c>
+      <c r="E39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F39">
+        <v>-5.03</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>0.68</v>
+      </c>
+      <c r="E40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F40">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>-0.43</v>
+      </c>
+      <c r="E41">
+        <v>0.09</v>
+      </c>
+      <c r="F41">
+        <v>-4.93</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>1.01</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+      <c r="F42">
+        <v>21.91</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>-0.12</v>
+      </c>
+      <c r="E43">
+        <v>0.85</v>
+      </c>
+      <c r="F43">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.88727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>0.76</v>
+      </c>
+      <c r="E44">
+        <v>0.23</v>
+      </c>
+      <c r="F44">
+        <v>3.37</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>1.45</v>
+      </c>
+      <c r="E45">
+        <v>0.26</v>
+      </c>
+      <c r="F45">
+        <v>5.54</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>-0.32</v>
+      </c>
+      <c r="E46">
+        <v>0.68</v>
+      </c>
+      <c r="F46">
+        <v>-0.47</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.64005000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>-0.51</v>
+      </c>
+      <c r="E47">
+        <v>0.35</v>
+      </c>
+      <c r="F47">
+        <v>-1.45</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.14574000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E48">
+        <v>0.39</v>
+      </c>
+      <c r="F48">
+        <v>1.4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.16108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <v>0.34</v>
+      </c>
+      <c r="E49">
+        <v>0.47</v>
+      </c>
+      <c r="F49">
+        <v>0.72</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.46905000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50">
+        <v>0.82</v>
+      </c>
+      <c r="E50">
+        <v>0.21</v>
+      </c>
+      <c r="F50">
+        <v>3.83</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.2999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>0.44</v>
+      </c>
+      <c r="E51">
+        <v>0.37</v>
+      </c>
+      <c r="F51">
+        <v>1.21</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.22567999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0.36</v>
+      </c>
+      <c r="E52">
+        <v>0.21</v>
+      </c>
+      <c r="F52">
+        <v>1.71</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8.8160000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53">
+        <v>1.08</v>
+      </c>
+      <c r="E53">
+        <v>0.19</v>
+      </c>
+      <c r="F53">
+        <v>5.6</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54">
+        <v>-0.19</v>
+      </c>
+      <c r="E54">
+        <v>0.46</v>
+      </c>
+      <c r="F54">
+        <v>-0.42</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.67591000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F55">
+        <v>1.01</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.31274999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>1.27</v>
+      </c>
+      <c r="E56">
+        <v>0.22</v>
+      </c>
+      <c r="F56">
+        <v>5.67</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>-0.6</v>
+      </c>
+      <c r="E57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F57">
+        <v>-2.16</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3.1119999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>1.22</v>
+      </c>
+      <c r="E58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F58">
+        <v>8.66</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59">
+        <v>0.83</v>
+      </c>
+      <c r="E59">
+        <v>1.01</v>
+      </c>
+      <c r="F59">
+        <v>0.82</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.41016999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.39</v>
+      </c>
+      <c r="F60">
+        <v>1.49</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.13714999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61">
+        <v>1.02</v>
+      </c>
+      <c r="E61">
+        <v>0.63</v>
+      </c>
+      <c r="F61">
+        <v>1.62</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.10505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62">
+        <v>-15.71</v>
+      </c>
+      <c r="E62">
+        <v>722.79</v>
+      </c>
+      <c r="F62">
+        <v>-0.02</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.98265999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>-0.71</v>
+      </c>
+      <c r="E63">
+        <v>0.38</v>
+      </c>
+      <c r="F63">
+        <v>-1.84</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6.5420000000000006E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <v>0.48</v>
+      </c>
+      <c r="E64">
+        <v>0.42</v>
+      </c>
+      <c r="F64">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.25618000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>-0.31</v>
+      </c>
+      <c r="E65">
+        <v>0.4</v>
+      </c>
+      <c r="F65">
+        <v>-0.78</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.43603999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>1.28</v>
+      </c>
+      <c r="E66">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F66">
+        <v>4.53</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>0.17</v>
+      </c>
+      <c r="E67">
+        <v>0.17</v>
+      </c>
+      <c r="F67">
+        <v>0.96</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.33493000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+      <c r="E68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F68">
+        <v>3.66</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>1.27</v>
+      </c>
+      <c r="E69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F69">
+        <v>17.02</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>-0.93</v>
+      </c>
+      <c r="E70">
+        <v>0.16</v>
+      </c>
+      <c r="F70">
+        <v>-5.81</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>-0.4</v>
+      </c>
+      <c r="E71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F71">
+        <v>-5.87</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72">
+        <v>0.75</v>
+      </c>
+      <c r="E72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F72">
+        <v>10.7</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>-0.32</v>
+      </c>
+      <c r="E73">
+        <v>0.08</v>
+      </c>
+      <c r="F73">
+        <v>-4.01</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.04</v>
+      </c>
+      <c r="F74">
+        <v>24.8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>0.15</v>
+      </c>
+      <c r="E75">
+        <v>0.68</v>
+      </c>
+      <c r="F75">
+        <v>0.22</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.82726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>0.61</v>
+      </c>
+      <c r="E76">
+        <v>0.2</v>
+      </c>
+      <c r="F76">
+        <v>2.99</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2.81E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>1.19</v>
+      </c>
+      <c r="E77">
+        <v>0.25</v>
+      </c>
+      <c r="F77">
+        <v>4.8</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>-0.86</v>
+      </c>
+      <c r="E78">
+        <v>0.67</v>
+      </c>
+      <c r="F78">
+        <v>-1.29</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.19739999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>-0.35</v>
+      </c>
+      <c r="E79">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F79">
+        <v>-1.28</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.20124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>0.21</v>
+      </c>
+      <c r="E80">
+        <v>0.35</v>
+      </c>
+      <c r="F80">
+        <v>0.61</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.54305999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E81">
+        <v>0.42</v>
+      </c>
+      <c r="F81">
+        <v>0.66</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.50734000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>0.74</v>
+      </c>
+      <c r="E82">
+        <v>0.19</v>
+      </c>
+      <c r="F82">
+        <v>3.94</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>0.25</v>
+      </c>
+      <c r="E83">
+        <v>0.33</v>
+      </c>
+      <c r="F83">
+        <v>0.78</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.43374000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>0.04</v>
+      </c>
+      <c r="E84">
+        <v>0.19</v>
+      </c>
+      <c r="F84">
+        <v>0.18</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.85551999999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+      <c r="E85">
+        <v>0.17</v>
+      </c>
+      <c r="F85">
+        <v>5.34</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86">
+        <v>-0.41</v>
+      </c>
+      <c r="E86">
+        <v>0.4</v>
+      </c>
+      <c r="F86">
+        <v>-1.02</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.30906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>0.13</v>
+      </c>
+      <c r="E87">
+        <v>0.25</v>
+      </c>
+      <c r="F87">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.61648999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>0.97</v>
+      </c>
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88">
+        <v>4.82</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89">
+        <v>-0.63</v>
+      </c>
+      <c r="E89">
+        <v>0.22</v>
+      </c>
+      <c r="F89">
+        <v>-2.81</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4.9300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90">
+        <v>0.95</v>
+      </c>
+      <c r="E90">
+        <v>0.12</v>
+      </c>
+      <c r="F90">
+        <v>7.91</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91">
+        <v>1.61</v>
+      </c>
+      <c r="E91">
+        <v>0.83</v>
+      </c>
+      <c r="F91">
+        <v>1.94</v>
+      </c>
+      <c r="G91" s="3">
+        <v>5.271E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <v>0.51</v>
+      </c>
+      <c r="E92">
+        <v>0.36</v>
+      </c>
+      <c r="F92">
+        <v>1.4</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.16269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93">
+        <v>1.3</v>
+      </c>
+      <c r="E93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F93">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2.0330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94">
+        <v>-1.93</v>
+      </c>
+      <c r="E94">
+        <v>1.05</v>
+      </c>
+      <c r="F94">
+        <v>-1.83</v>
+      </c>
+      <c r="G94" s="3">
+        <v>6.7510000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <v>-1.22</v>
+      </c>
+      <c r="E95">
+        <v>0.39</v>
+      </c>
+      <c r="F95">
+        <v>-3.12</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96">
+        <v>0.01</v>
+      </c>
+      <c r="E96">
+        <v>0.43</v>
+      </c>
+      <c r="F96">
+        <v>0.02</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.98624999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97">
+        <v>-0.7</v>
+      </c>
+      <c r="E97">
+        <v>0.39</v>
+      </c>
+      <c r="F97">
+        <v>-1.79</v>
+      </c>
+      <c r="G97" s="3">
+        <v>7.4120000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98">
+        <v>1.33</v>
+      </c>
+      <c r="E98">
+        <v>0.26</v>
+      </c>
+      <c r="F98">
+        <v>5.16</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99">
+        <v>-0.22</v>
+      </c>
+      <c r="E99">
+        <v>0.24</v>
+      </c>
+      <c r="F99">
+        <v>-0.94</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.34743000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <v>0.22</v>
+      </c>
+      <c r="E100">
+        <v>0.08</v>
+      </c>
+      <c r="F100">
+        <v>2.69</v>
+      </c>
+      <c r="G100" s="3">
+        <v>7.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101">
+        <v>1.35</v>
+      </c>
+      <c r="E101">
+        <v>0.08</v>
+      </c>
+      <c r="F101">
+        <v>16.29</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.23</v>
+      </c>
+      <c r="F102">
+        <v>-5.14</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>-0.33</v>
+      </c>
+      <c r="E103">
+        <v>0.08</v>
+      </c>
+      <c r="F103">
+        <v>-3.93</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>0.96</v>
+      </c>
+      <c r="E104">
+        <v>0.08</v>
+      </c>
+      <c r="F104">
+        <v>12.05</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
+        <v>-0.44</v>
+      </c>
+      <c r="E105">
+        <v>0.1</v>
+      </c>
+      <c r="F105">
+        <v>-4.17</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106">
+        <v>1.22</v>
+      </c>
+      <c r="E106">
+        <v>0.05</v>
+      </c>
+      <c r="F106">
+        <v>23.88</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107">
+        <v>0.04</v>
+      </c>
+      <c r="E107">
+        <v>0.85</v>
+      </c>
+      <c r="F107">
+        <v>0.05</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.96126999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>0.75</v>
+      </c>
+      <c r="E108">
+        <v>0.24</v>
+      </c>
+      <c r="F108">
+        <v>3.15</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>1.53</v>
+      </c>
+      <c r="E109">
+        <v>0.27</v>
+      </c>
+      <c r="F109">
+        <v>5.7</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E110">
+        <v>0.68</v>
+      </c>
+      <c r="F110">
+        <v>-0.2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.84136999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111">
+        <v>-0.34</v>
+      </c>
+      <c r="E111">
+        <v>0.36</v>
+      </c>
+      <c r="F111">
+        <v>-0.94</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.34626000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>0.59</v>
+      </c>
+      <c r="E112">
+        <v>0.41</v>
+      </c>
+      <c r="F112">
+        <v>1.43</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.15175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113">
+        <v>0.38</v>
+      </c>
+      <c r="E113">
+        <v>0.49</v>
+      </c>
+      <c r="F113">
+        <v>0.76</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.44468000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114">
+        <v>0.9</v>
+      </c>
+      <c r="E114">
+        <v>0.22</v>
+      </c>
+      <c r="F114">
+        <v>4.05</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115">
+        <v>0.23</v>
+      </c>
+      <c r="E115">
+        <v>0.41</v>
+      </c>
+      <c r="F115">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.57028000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116">
+        <v>0.36</v>
+      </c>
+      <c r="E116">
+        <v>0.22</v>
+      </c>
+      <c r="F116">
+        <v>1.63</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.10229000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E117">
+        <v>0.2</v>
+      </c>
+      <c r="F117">
+        <v>5.57</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118">
+        <v>-0.08</v>
+      </c>
+      <c r="E118">
+        <v>0.46</v>
+      </c>
+      <c r="F118">
+        <v>-0.18</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.85548000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119">
+        <v>0.16</v>
+      </c>
+      <c r="E119">
+        <v>0.32</v>
+      </c>
+      <c r="F119">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.61684000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120">
+        <v>1.31</v>
+      </c>
+      <c r="E120">
+        <v>0.23</v>
+      </c>
+      <c r="F120">
+        <v>5.63</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121">
+        <v>-0.83</v>
+      </c>
+      <c r="E121">
+        <v>0.32</v>
+      </c>
+      <c r="F121">
+        <v>-2.56</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1.044E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122">
+        <v>1.23</v>
+      </c>
+      <c r="E122">
+        <v>0.15</v>
+      </c>
+      <c r="F122">
+        <v>8.35</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123">
+        <v>1.08</v>
+      </c>
+      <c r="E123">
+        <v>1.02</v>
+      </c>
+      <c r="F123">
+        <v>1.06</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.28794999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124">
+        <v>0.39</v>
+      </c>
+      <c r="E124">
+        <v>0.45</v>
+      </c>
+      <c r="F124">
+        <v>0.87</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.38617000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125">
+        <v>1.26</v>
+      </c>
+      <c r="E125">
+        <v>0.63</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3">
+        <v>4.5710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126">
+        <v>-15.46</v>
+      </c>
+      <c r="E126">
+        <v>722.82</v>
+      </c>
+      <c r="F126">
+        <v>-0.02</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.98294000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127">
+        <v>-0.97</v>
+      </c>
+      <c r="E127">
+        <v>0.47</v>
+      </c>
+      <c r="F127">
+        <v>-2.08</v>
+      </c>
+      <c r="G127" s="3">
+        <v>3.7240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128">
+        <v>0.63</v>
+      </c>
+      <c r="E128">
+        <v>0.44</v>
+      </c>
+      <c r="F128">
+        <v>1.44</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.15064</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129">
+        <v>-0.42</v>
+      </c>
+      <c r="E129">
+        <v>0.45</v>
+      </c>
+      <c r="F129">
+        <v>-0.92</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.35576000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130">
+        <v>1.29</v>
+      </c>
+      <c r="E130">
+        <v>0.3</v>
+      </c>
+      <c r="F130">
+        <v>4.28</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350AF03-0AD3-574D-90EF-303F955C8E3A}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.90615999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>0.21</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>3.54</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>1.22</v>
+      </c>
+      <c r="E5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5">
+        <v>17.22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>-0.63</v>
+      </c>
+      <c r="E6">
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>-0.47</v>
+      </c>
+      <c r="E7">
+        <v>0.06</v>
+      </c>
+      <c r="F7">
+        <v>-7.79</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <v>0.06</v>
+      </c>
+      <c r="F8">
+        <v>5.42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>-0.33</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.04</v>
+      </c>
+      <c r="F10">
+        <v>21.58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>0.64</v>
+      </c>
+      <c r="E11">
+        <v>0.64</v>
+      </c>
+      <c r="F11">
+        <v>1.01</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.31364999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0.33</v>
+      </c>
+      <c r="E12">
+        <v>0.19</v>
+      </c>
+      <c r="F12">
+        <v>1.68</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>0.91</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>3.69</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>-0.81</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>-0.72</v>
+      </c>
+      <c r="E15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F15">
+        <v>-2.6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9.3399999999999993E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>-0.63</v>
+      </c>
+      <c r="E16">
+        <v>0.35</v>
+      </c>
+      <c r="F16">
+        <v>-1.81</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.1010000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>-0.37</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="F17">
+        <v>-0.92</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.36009000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+      <c r="E18">
+        <v>0.18</v>
+      </c>
+      <c r="F18">
+        <v>3.9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>0.12</v>
+      </c>
+      <c r="E19">
+        <v>0.27</v>
+      </c>
+      <c r="F19">
+        <v>0.42</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.67301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>0.11</v>
+      </c>
+      <c r="E20">
+        <v>0.16</v>
+      </c>
+      <c r="F20">
+        <v>0.69</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.49317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.15</v>
+      </c>
+      <c r="F21">
+        <v>7.43</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>-0.74</v>
+      </c>
+      <c r="E22">
+        <v>0.43</v>
+      </c>
+      <c r="F22">
+        <v>-1.73</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.2879999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.25</v>
+      </c>
+      <c r="F23">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.57416999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>0.21</v>
+      </c>
+      <c r="F24">
+        <v>2.94</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>-0.48</v>
+      </c>
+      <c r="E25">
+        <v>0.21</v>
+      </c>
+      <c r="F25">
+        <v>-2.33</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.992E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>0.83</v>
+      </c>
+      <c r="E26">
+        <v>0.12</v>
+      </c>
+      <c r="F26">
+        <v>6.86</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>0.54</v>
+      </c>
+      <c r="E27">
+        <v>0.66</v>
+      </c>
+      <c r="F27">
+        <v>0.81</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.41553000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>0.34</v>
+      </c>
+      <c r="E28">
+        <v>0.32</v>
+      </c>
+      <c r="F28">
+        <v>1.06</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.29132999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>1.37</v>
+      </c>
+      <c r="E29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F29">
+        <v>2.35</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.8919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>-1.81</v>
+      </c>
+      <c r="E30">
+        <v>0.77</v>
+      </c>
+      <c r="F30">
+        <v>-2.33</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.958E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>-1.07</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>-3.6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>-0.31</v>
+      </c>
+      <c r="E32">
+        <v>0.38</v>
+      </c>
+      <c r="F32">
+        <v>-0.81</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.42035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>-0.65</v>
+      </c>
+      <c r="E33">
+        <v>0.36</v>
+      </c>
+      <c r="F33">
+        <v>-1.79</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7.2849999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>1.19</v>
+      </c>
+      <c r="E34">
+        <v>0.26</v>
+      </c>
+      <c r="F34">
+        <v>4.62</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>-0.16</v>
+      </c>
+      <c r="E35">
+        <v>0.18</v>
+      </c>
+      <c r="F35">
+        <v>-0.9</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.36860999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>0.16</v>
+      </c>
+      <c r="E36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.6449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>1.29</v>
+      </c>
+      <c r="E37">
+        <v>0.08</v>
+      </c>
+      <c r="F37">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>-0.7</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>-4.59</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>-0.49</v>
+      </c>
+      <c r="E39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F39">
+        <v>-6.8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>0.39</v>
+      </c>
+      <c r="E40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F40">
+        <v>5.25</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>-0.45</v>
+      </c>
+      <c r="E41">
+        <v>0.09</v>
+      </c>
+      <c r="F41">
+        <v>-5.15</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>0.99</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+      <c r="F42">
+        <v>21.23</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>0.37</v>
+      </c>
+      <c r="E43">
+        <v>0.78</v>
+      </c>
+      <c r="F43">
+        <v>0.48</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.63256999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>0.43</v>
+      </c>
+      <c r="E44">
+        <v>0.22</v>
+      </c>
+      <c r="F44">
+        <v>1.93</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5.3920000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.27</v>
+      </c>
+      <c r="F45">
+        <v>4.3</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.71</v>
+      </c>
+      <c r="F46">
+        <v>-0.09</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>-0.84</v>
+      </c>
+      <c r="E47">
+        <v>0.37</v>
+      </c>
+      <c r="F47">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2.3609999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>-0.39</v>
+      </c>
+      <c r="E48">
+        <v>0.43</v>
+      </c>
+      <c r="F48">
+        <v>-0.9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.36796000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <v>-0.2</v>
+      </c>
+      <c r="E49">
+        <v>0.47</v>
+      </c>
+      <c r="F49">
+        <v>-0.44</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.66327000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50">
+        <v>0.94</v>
+      </c>
+      <c r="E50">
+        <v>0.21</v>
+      </c>
+      <c r="F50">
+        <v>4.53</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>-0.04</v>
+      </c>
+      <c r="E51">
+        <v>0.37</v>
+      </c>
+      <c r="F51">
+        <v>-0.12</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.90408999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0.23</v>
+      </c>
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+      <c r="F52">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.25298999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53">
+        <v>1.35</v>
+      </c>
+      <c r="E53">
+        <v>0.17</v>
+      </c>
+      <c r="F53">
+        <v>7.77</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54">
+        <v>-0.44</v>
+      </c>
+      <c r="E54">
+        <v>0.49</v>
+      </c>
+      <c r="F54">
+        <v>-0.89</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.37584000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>-0.26</v>
+      </c>
+      <c r="E55">
+        <v>0.33</v>
+      </c>
+      <c r="F55">
+        <v>-0.77</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.43836999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>0.72</v>
+      </c>
+      <c r="E56">
+        <v>0.25</v>
+      </c>
+      <c r="F56">
+        <v>2.87</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>-0.49</v>
+      </c>
+      <c r="E57">
+        <v>0.27</v>
+      </c>
+      <c r="F57">
+        <v>-1.79</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7.2989999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.15</v>
+      </c>
+      <c r="F58">
+        <v>7.5</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59">
+        <v>0.03</v>
+      </c>
+      <c r="E59">
+        <v>0.88</v>
+      </c>
+      <c r="F59">
+        <v>0.04</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.96891000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>0.34</v>
+      </c>
+      <c r="E60">
+        <v>0.37</v>
+      </c>
+      <c r="F60">
+        <v>0.92</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.35797000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61">
+        <v>1.56</v>
+      </c>
+      <c r="E61">
+        <v>0.62</v>
+      </c>
+      <c r="F61">
+        <v>2.5</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1.2449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62">
+        <v>-15.78</v>
+      </c>
+      <c r="E62">
+        <v>664.63</v>
+      </c>
+      <c r="F62">
+        <v>-0.02</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.98104999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>-1.03</v>
+      </c>
+      <c r="E63">
+        <v>0.38</v>
+      </c>
+      <c r="F63">
+        <v>-2.72</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <v>-0.06</v>
+      </c>
+      <c r="E64">
+        <v>0.43</v>
+      </c>
+      <c r="F64">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.88497000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>-0.3</v>
+      </c>
+      <c r="E65">
+        <v>0.4</v>
+      </c>
+      <c r="F65">
+        <v>-0.73</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.46428999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>1.25</v>
+      </c>
+      <c r="E66">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F66">
+        <v>4.28</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.16</v>
+      </c>
+      <c r="F67">
+        <v>0.46</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.64685999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>0.31</v>
+      </c>
+      <c r="E68">
+        <v>0.06</v>
+      </c>
+      <c r="F68">
+        <v>4.78</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>1.46</v>
+      </c>
+      <c r="E69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F69">
+        <v>19.77</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>-0.96</v>
+      </c>
+      <c r="E70">
+        <v>0.16</v>
+      </c>
+      <c r="F70">
+        <v>-6.04</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="E71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F71">
+        <v>-7.96</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72">
+        <v>0.51</v>
+      </c>
+      <c r="E72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F72">
+        <v>7.39</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>-0.32</v>
+      </c>
+      <c r="E73">
+        <v>0.08</v>
+      </c>
+      <c r="F73">
+        <v>-3.9</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.04</v>
+      </c>
+      <c r="F74">
+        <v>24.51</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>0.64</v>
+      </c>
+      <c r="E75">
+        <v>0.66</v>
+      </c>
+      <c r="F75">
+        <v>0.98</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.32805000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>0.26</v>
+      </c>
+      <c r="E76">
+        <v>0.2</v>
+      </c>
+      <c r="F76">
+        <v>1.26</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.20616999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>0.94</v>
+      </c>
+      <c r="E77">
+        <v>0.25</v>
+      </c>
+      <c r="F77">
+        <v>3.74</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>-0.66</v>
+      </c>
+      <c r="E78">
+        <v>0.7</v>
+      </c>
+      <c r="F78">
+        <v>-0.95</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.34416000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>-0.67</v>
+      </c>
+      <c r="E79">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F79">
+        <v>-2.33</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1.9640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E80">
+        <v>0.36</v>
+      </c>
+      <c r="F80">
+        <v>-1.57</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.11606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>-0.31</v>
+      </c>
+      <c r="E81">
+        <v>0.42</v>
+      </c>
+      <c r="F81">
+        <v>-0.75</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.45025999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="E82">
+        <v>0.19</v>
+      </c>
+      <c r="F82">
+        <v>4.26</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83">
+        <v>0.06</v>
+      </c>
+      <c r="E83">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F83">
+        <v>0.2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.84338999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84">
+        <v>0.03</v>
+      </c>
+      <c r="E84">
+        <v>0.18</v>
+      </c>
+      <c r="F84">
+        <v>0.18</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.85502999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.15</v>
+      </c>
+      <c r="F85">
+        <v>7.39</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86">
+        <v>-0.93</v>
+      </c>
+      <c r="E86">
+        <v>0.49</v>
+      </c>
+      <c r="F86">
+        <v>-1.91</v>
+      </c>
+      <c r="G86" s="3">
+        <v>5.6730000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>-0.31</v>
+      </c>
+      <c r="E87">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F87">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.26017000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E88">
+        <v>0.22</v>
+      </c>
+      <c r="F88">
+        <v>2.61</v>
+      </c>
+      <c r="G88" s="3">
+        <v>9.0799999999999995E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E89">
+        <v>0.23</v>
+      </c>
+      <c r="F89">
+        <v>-2.56</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1.0489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90">
+        <v>0.86</v>
+      </c>
+      <c r="E90">
+        <v>0.13</v>
+      </c>
+      <c r="F90">
+        <v>6.84</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91">
+        <v>0.82</v>
+      </c>
+      <c r="E91">
+        <v>0.66</v>
+      </c>
+      <c r="F91">
+        <v>1.24</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.21378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <v>0.27</v>
+      </c>
+      <c r="E92">
+        <v>0.35</v>
+      </c>
+      <c r="F92">
+        <v>0.78</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.43387999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93">
+        <v>1.49</v>
+      </c>
+      <c r="E93">
+        <v>0.6</v>
+      </c>
+      <c r="F93">
+        <v>2.5</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1.2489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94">
+        <v>-2.27</v>
+      </c>
+      <c r="E94">
+        <v>1.05</v>
+      </c>
+      <c r="F94">
+        <v>-2.16</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3.0939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <v>-1.37</v>
+      </c>
+      <c r="E95">
+        <v>0.36</v>
+      </c>
+      <c r="F95">
+        <v>-3.79</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96">
+        <v>-0.65</v>
+      </c>
+      <c r="E96">
+        <v>0.46</v>
+      </c>
+      <c r="F96">
+        <v>-1.4</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.16053999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97">
+        <v>-0.64</v>
+      </c>
+      <c r="E97">
+        <v>0.4</v>
+      </c>
+      <c r="F97">
+        <v>-1.61</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.10768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98">
+        <v>1.36</v>
+      </c>
+      <c r="E98">
+        <v>0.27</v>
+      </c>
+      <c r="F98">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99">
+        <v>-0.18</v>
+      </c>
+      <c r="E99">
+        <v>0.21</v>
+      </c>
+      <c r="F99">
+        <v>-0.84</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.39909</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <v>0.27</v>
+      </c>
+      <c r="E100">
+        <v>0.08</v>
+      </c>
+      <c r="F100">
+        <v>3.5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101">
+        <v>1.59</v>
+      </c>
+      <c r="E101">
+        <v>0.08</v>
+      </c>
+      <c r="F101">
+        <v>19.84</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102">
+        <v>-1.5</v>
+      </c>
+      <c r="E102">
+        <v>0.26</v>
+      </c>
+      <c r="F102">
+        <v>-5.75</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>-0.64</v>
+      </c>
+      <c r="E103">
+        <v>0.09</v>
+      </c>
+      <c r="F103">
+        <v>-6.98</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E104">
+        <v>0.08</v>
+      </c>
+      <c r="F104">
+        <v>7.11</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
+        <v>-0.44</v>
+      </c>
+      <c r="E105">
+        <v>0.11</v>
+      </c>
+      <c r="F105">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106">
+        <v>1.21</v>
+      </c>
+      <c r="E106">
+        <v>0.05</v>
+      </c>
+      <c r="F106">
+        <v>23.3</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107">
+        <v>0.47</v>
+      </c>
+      <c r="E107">
+        <v>0.78</v>
+      </c>
+      <c r="F107">
+        <v>0.61</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.54125000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>0.3</v>
+      </c>
+      <c r="E108">
+        <v>0.24</v>
+      </c>
+      <c r="F108">
+        <v>1.25</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.21171999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E109">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F109">
+        <v>4.2</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110">
+        <v>0.06</v>
+      </c>
+      <c r="E110">
+        <v>0.71</v>
+      </c>
+      <c r="F110">
+        <v>0.09</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.92922000000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111">
+        <v>-0.83</v>
+      </c>
+      <c r="E111">
+        <v>0.39</v>
+      </c>
+      <c r="F111">
+        <v>-2.12</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>-0.38</v>
+      </c>
+      <c r="E112">
+        <v>0.45</v>
+      </c>
+      <c r="F112">
+        <v>-0.83</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.40661000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113">
+        <v>-0.25</v>
+      </c>
+      <c r="E113">
+        <v>0.5</v>
+      </c>
+      <c r="F113">
+        <v>-0.5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.61531000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114">
+        <v>0.97</v>
+      </c>
+      <c r="E114">
+        <v>0.21</v>
+      </c>
+      <c r="F114">
+        <v>4.54</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115">
+        <v>-0.32</v>
+      </c>
+      <c r="E115">
+        <v>0.42</v>
+      </c>
+      <c r="F115">
+        <v>-0.75</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.45240000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116">
+        <v>0.19</v>
+      </c>
+      <c r="E116">
+        <v>0.21</v>
+      </c>
+      <c r="F116">
+        <v>0.94</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.34870000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117">
+        <v>1.37</v>
+      </c>
+      <c r="E117">
+        <v>0.18</v>
+      </c>
+      <c r="F117">
+        <v>7.7</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118">
+        <v>-0.87</v>
+      </c>
+      <c r="E118">
+        <v>0.61</v>
+      </c>
+      <c r="F118">
+        <v>-1.41</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.15855</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119">
+        <v>-0.86</v>
+      </c>
+      <c r="E119">
+        <v>0.44</v>
+      </c>
+      <c r="F119">
+        <v>-1.95</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5.0840000000000003E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120">
+        <v>0.64</v>
+      </c>
+      <c r="E120">
+        <v>0.27</v>
+      </c>
+      <c r="F120">
+        <v>2.4</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1.6480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E121">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F121">
+        <v>-1.96</v>
+      </c>
+      <c r="G121" s="3">
+        <v>5.0430000000000003E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122">
+        <v>1.06</v>
+      </c>
+      <c r="E122">
+        <v>0.15</v>
+      </c>
+      <c r="F122">
+        <v>7.05</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123">
+        <v>0.26</v>
+      </c>
+      <c r="E123">
+        <v>0.88</v>
+      </c>
+      <c r="F123">
+        <v>0.3</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.76568000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124">
+        <v>0.17</v>
+      </c>
+      <c r="E124">
+        <v>0.42</v>
+      </c>
+      <c r="F124">
+        <v>0.4</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.69020000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125">
+        <v>1.67</v>
+      </c>
+      <c r="E125">
+        <v>0.64</v>
+      </c>
+      <c r="F125">
+        <v>2.62</v>
+      </c>
+      <c r="G125" s="3">
+        <v>8.8299999999999993E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126">
+        <v>-15.55</v>
+      </c>
+      <c r="E126">
+        <v>664.74</v>
+      </c>
+      <c r="F126">
+        <v>-0.02</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.98133000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127">
+        <v>-1.5</v>
+      </c>
+      <c r="E127">
+        <v>0.5</v>
+      </c>
+      <c r="F127">
+        <v>-3</v>
+      </c>
+      <c r="G127" s="3">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128">
+        <v>-0.42</v>
+      </c>
+      <c r="E128">
+        <v>0.53</v>
+      </c>
+      <c r="F128">
+        <v>-0.79</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.42920000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129">
+        <v>-0.42</v>
+      </c>
+      <c r="E129">
+        <v>0.46</v>
+      </c>
+      <c r="F129">
+        <v>-0.92</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.35748000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130">
+        <v>1.34</v>
+      </c>
+      <c r="E130">
+        <v>0.31</v>
+      </c>
+      <c r="F130">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78283DB8-9F81-D040-8950-666E8953914C}">
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/SupplementaryTables.xlsx
+++ b/docs/SupplementaryTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheaandrews/gitcode/CAIDE_APOE/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02829E0-3EAD-104C-8D41-49CC0EBF0657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200B687F-1D61-CE45-842E-82AEC49275DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22460" windowHeight="26600" activeTab="7" xr2:uid="{BE62AA02-C928-A340-9FC9-1ECD0470E4E7}"/>
+    <workbookView xWindow="28420" yWindow="1060" windowWidth="22460" windowHeight="26280" firstSheet="1" activeTab="12" xr2:uid="{BE62AA02-C928-A340-9FC9-1ECD0470E4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="TS3" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="TS9" sheetId="8" r:id="rId7"/>
     <sheet name="TS10" sheetId="9" r:id="rId8"/>
     <sheet name="TS11" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="181">
   <si>
     <t>statistic</t>
   </si>
@@ -549,6 +553,45 @@
   <si>
     <t xml:space="preserve"> 1.1e-05</t>
   </si>
+  <si>
+    <t>APOE e2+</t>
+  </si>
+  <si>
+    <t>APOE e4+</t>
+  </si>
+  <si>
+    <t>ADNI</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Table Sx: Association of CAIDE and APOE on MCI/ADRD stratified by Sex</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>predictor</t>
+  </si>
+  <si>
+    <t>Tales Sx: Association of CAIDE and APOE with ADRD/MCI stratified by sex and race/ethnicity</t>
+  </si>
+  <si>
+    <t>Tales Sx: Association of mCAIDE and APOE with ADRD/MCI stratified by sex and race/ethnicity</t>
+  </si>
+  <si>
+    <t>Table Sx: Association of mCAIDE and APOE on MCI/ADRD stratified by Sex</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +622,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -587,11 +630,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,6 +766,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,6 +1665,1765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFA9F41-8656-DF40-B792-48B9C4D22AB4}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>1.98</v>
+      </c>
+      <c r="E4">
+        <v>4.82E-2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>-0.65</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="21">
+        <v>-21.54</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2E-58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>-0.36</v>
+      </c>
+      <c r="E5">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="J5">
+        <v>-0.88</v>
+      </c>
+      <c r="K5">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.09</v>
+      </c>
+      <c r="D6">
+        <v>-6.37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.8E-10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-0.43</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="H6" s="19">
+        <v>-7.36</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1.9E-13</v>
+      </c>
+      <c r="J6">
+        <v>-1.18</v>
+      </c>
+      <c r="K6">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>1.26</v>
+      </c>
+      <c r="E7">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I7" s="23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>-0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-0.24</v>
+      </c>
+      <c r="C8">
+        <v>0.08</v>
+      </c>
+      <c r="D8">
+        <v>-3.08</v>
+      </c>
+      <c r="E8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-0.37</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-5</v>
+      </c>
+      <c r="I8" s="24">
+        <v>5.8999999999999996E-7</v>
+      </c>
+      <c r="J8">
+        <v>1.21</v>
+      </c>
+      <c r="K8">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>17.47</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.3E-68</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="19">
+        <v>23.38</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>-2.11</v>
+      </c>
+      <c r="K9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3.21</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J10">
+        <v>-1.2</v>
+      </c>
+      <c r="K10">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7000000000000001E-10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>7.93</v>
+      </c>
+      <c r="I11" s="24">
+        <v>2.1999999999999999E-15</v>
+      </c>
+      <c r="J11">
+        <v>-0.99</v>
+      </c>
+      <c r="K11">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C15A03-B8BD-1246-B40E-2F7B1595AD7E}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.94</v>
+      </c>
+      <c r="E4" s="22">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>-0.66</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="21">
+        <v>-21.61</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>16.21</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.3999999999999998E-59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-0.03</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="19">
+        <v>-0.21</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="J5">
+        <v>-0.86</v>
+      </c>
+      <c r="K5">
+        <v>0.39250000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-0.59</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="19">
+        <v>-6.76</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.4E-11</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-0.51</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="H6" s="19">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="I6" s="24">
+        <v>6.3999999999999998E-18</v>
+      </c>
+      <c r="J6">
+        <v>-0.77</v>
+      </c>
+      <c r="K6">
+        <v>0.43996000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.2959</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.41</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="J7">
+        <v>-0.01</v>
+      </c>
+      <c r="K7">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-0.23</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="19">
+        <v>-2.94</v>
+      </c>
+      <c r="E8" s="23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-4.68</v>
+      </c>
+      <c r="I8" s="24">
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="J8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.27328000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="19">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1.7000000000000001E-68</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="19">
+        <v>23.48</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="K9">
+        <v>2.5059999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5.43</v>
+      </c>
+      <c r="E10" s="24">
+        <v>5.5999999999999999E-8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1.3E-31</v>
+      </c>
+      <c r="J10">
+        <v>-3.36</v>
+      </c>
+      <c r="K10">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="C11" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7.07</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>8.86</v>
+      </c>
+      <c r="I11" s="24">
+        <v>7.9999999999999998E-19</v>
+      </c>
+      <c r="J11">
+        <v>-1.2</v>
+      </c>
+      <c r="K11">
+        <v>0.22922999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B860DDF2-8C27-D94B-9BB5-44D1817FCDC3}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="D4" s="19">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-2.59</v>
+      </c>
+      <c r="F4" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>-0.37</v>
+      </c>
+      <c r="I4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J4">
+        <v>-4.43</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.3000000000000007E-6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="19">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>4.6000000000000003E-60</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.99</v>
+      </c>
+      <c r="I5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>21.52</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9.5000000000000006E-103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6">
+        <v>0.06</v>
+      </c>
+      <c r="I6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.52</v>
+      </c>
+      <c r="K6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E7" s="19">
+        <v>-0.4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7">
+        <v>-0.08</v>
+      </c>
+      <c r="I7">
+        <v>0.372</v>
+      </c>
+      <c r="J7">
+        <v>-0.21</v>
+      </c>
+      <c r="K7">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0.69</v>
+      </c>
+      <c r="I8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J8">
+        <v>3.94</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="19">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9">
+        <v>0.19</v>
+      </c>
+      <c r="I9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.82</v>
+      </c>
+      <c r="K9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-0.33</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E10" s="19">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10">
+        <v>-0.4</v>
+      </c>
+      <c r="I10">
+        <v>0.19</v>
+      </c>
+      <c r="J10">
+        <v>-2.09</v>
+      </c>
+      <c r="K10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4.66</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0.86</v>
+      </c>
+      <c r="I11">
+        <v>0.113</v>
+      </c>
+      <c r="J11">
+        <v>7.59</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.2000000000000002E-14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>-1.23</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.217</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>-1.38</v>
+      </c>
+      <c r="K12">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-0.52</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.432</v>
+      </c>
+      <c r="E13" s="19">
+        <v>-1.2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13">
+        <v>-0.51</v>
+      </c>
+      <c r="I13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J13">
+        <v>-1.3</v>
+      </c>
+      <c r="K13">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3.75</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0.95</v>
+      </c>
+      <c r="I14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="J14">
+        <v>3.56</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.121</v>
+      </c>
+      <c r="J15">
+        <v>3.3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9.5E-4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F6830-1FCD-444C-B8F2-119A71A9A3C0}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-0.21</v>
+      </c>
+      <c r="D4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E4">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="F4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-0.35</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="K4" s="25">
+        <v>3.4E-5</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.83</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>16.36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.4999999999999998E-60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="K5" s="25">
+        <v>1.9999999999999999E-103</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.0999999999999998E-7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="K6" s="25">
+        <v>3.9999999999999998E-23</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>-0.22</v>
+      </c>
+      <c r="D7">
+        <v>0.54</v>
+      </c>
+      <c r="E7">
+        <v>-0.42</v>
+      </c>
+      <c r="F7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H7" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.51</v>
+      </c>
+      <c r="D8">
+        <v>0.245</v>
+      </c>
+      <c r="E8">
+        <v>2.08</v>
+      </c>
+      <c r="F8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4</v>
+      </c>
+      <c r="K8" s="25">
+        <v>6.3E-5</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
+        <v>0.11</v>
+      </c>
+      <c r="E9">
+        <v>1.95</v>
+      </c>
+      <c r="F9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="I9" s="19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="K9" s="25">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-0.33</v>
+      </c>
+      <c r="D10">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E10">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>-0.37</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="19">
+        <v>-1.93</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.82</v>
+      </c>
+      <c r="D11">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E11">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.8999999999999999E-6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.113</v>
+      </c>
+      <c r="J11" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1.4E-14</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.27</v>
+      </c>
+      <c r="F12">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2.73</v>
+      </c>
+      <c r="K12" s="19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>-0.48</v>
+      </c>
+      <c r="D13">
+        <v>0.435</v>
+      </c>
+      <c r="E13">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H13" s="9">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-1.41</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.157</v>
+      </c>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1.24</v>
+      </c>
+      <c r="D14">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E14">
+        <v>3.81</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3.58</v>
+      </c>
+      <c r="K14" s="25">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.126</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4.79</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1.7E-6</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817FF72-478F-4F47-8D16-5F6F427CDD2B}">
   <dimension ref="A1:K32"/>
@@ -10278,7 +12231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350AF03-0AD3-574D-90EF-303F955C8E3A}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
